--- a/Code/Results/Cases/Case_4_246/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_246/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.41839629669608</v>
+        <v>16.95887025742561</v>
       </c>
       <c r="C2">
-        <v>13.38593854219122</v>
+        <v>10.41088652709471</v>
       </c>
       <c r="D2">
-        <v>7.119097698715591</v>
+        <v>6.003140476266533</v>
       </c>
       <c r="E2">
-        <v>7.47536100327659</v>
+        <v>12.0785583340616</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.088013021511525</v>
+        <v>3.665344553063869</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.163441006855746</v>
+        <v>9.928025477822979</v>
       </c>
       <c r="M2">
-        <v>12.443069826858</v>
+        <v>15.58384651004511</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.39814479434543</v>
+        <v>27.02666271157908</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.94869208104344</v>
+        <v>16.49152096218613</v>
       </c>
       <c r="C3">
-        <v>12.81262696879202</v>
+        <v>10.16093321222414</v>
       </c>
       <c r="D3">
-        <v>6.620267294213004</v>
+        <v>5.888025489195202</v>
       </c>
       <c r="E3">
-        <v>7.583147772003334</v>
+        <v>12.11669486953835</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.095427673855597</v>
+        <v>3.668079164905103</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.085142700716941</v>
+        <v>9.937270524233574</v>
       </c>
       <c r="M3">
-        <v>11.85201610405817</v>
+        <v>15.48997162322161</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.11640882476216</v>
+        <v>27.08812233584521</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.99471942626142</v>
+        <v>16.20064209182174</v>
       </c>
       <c r="C4">
-        <v>12.44766056346731</v>
+        <v>10.00307006593457</v>
       </c>
       <c r="D4">
-        <v>6.297503184086779</v>
+        <v>5.818046401158304</v>
       </c>
       <c r="E4">
-        <v>7.651338410991182</v>
+        <v>12.14133492826608</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.100106597962327</v>
+        <v>3.669846613796764</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.039679613380809</v>
+        <v>9.944334821351845</v>
       </c>
       <c r="M4">
-        <v>11.47937358084063</v>
+        <v>15.43458540616399</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.96473138474495</v>
+        <v>27.13352824239347</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.59289193501544</v>
+        <v>16.08130175576957</v>
       </c>
       <c r="C5">
-        <v>12.29578684034271</v>
+        <v>9.93769474046303</v>
       </c>
       <c r="D5">
-        <v>6.181331117476367</v>
+        <v>5.789748900640655</v>
       </c>
       <c r="E5">
-        <v>7.679642457793749</v>
+        <v>12.15168466417772</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.102046243243165</v>
+        <v>3.670589164826073</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.021810139060397</v>
+        <v>9.947562841438069</v>
       </c>
       <c r="M5">
-        <v>11.32525228683011</v>
+        <v>15.41259930134026</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.90813342374626</v>
+        <v>27.15395178635718</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.52537591823482</v>
+        <v>16.06144229498842</v>
       </c>
       <c r="C6">
-        <v>12.27038186141855</v>
+        <v>9.926777920844222</v>
       </c>
       <c r="D6">
-        <v>6.162093353216445</v>
+        <v>5.78506464256875</v>
       </c>
       <c r="E6">
-        <v>7.684373778672776</v>
+        <v>12.1534219021264</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.102370343143222</v>
+        <v>3.670713814029009</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.018882601166271</v>
+        <v>9.948119953471213</v>
       </c>
       <c r="M6">
-        <v>11.29952957252274</v>
+        <v>15.40898430940885</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.89904555407233</v>
+        <v>27.15745882535444</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.98935332574677</v>
+        <v>16.1990356369682</v>
       </c>
       <c r="C7">
-        <v>12.44562492340561</v>
+        <v>10.0021925406812</v>
       </c>
       <c r="D7">
-        <v>6.295689871055952</v>
+        <v>5.817663825250387</v>
       </c>
       <c r="E7">
-        <v>7.651718027050903</v>
+        <v>12.14147325725381</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.100132621779208</v>
+        <v>3.669856537701905</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.039435959224322</v>
+        <v>9.944376941078575</v>
       </c>
       <c r="M7">
-        <v>11.47730396201366</v>
+        <v>15.43428650572529</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.96394718794918</v>
+        <v>27.13379591784147</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.9222788036403</v>
+        <v>16.79864868245331</v>
       </c>
       <c r="C8">
-        <v>13.19100814823681</v>
+        <v>10.32564831203493</v>
       </c>
       <c r="D8">
-        <v>6.950494483983974</v>
+        <v>5.96332886732718</v>
       </c>
       <c r="E8">
-        <v>7.512115410701152</v>
+        <v>12.09145430410718</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.090544117615183</v>
+        <v>3.666269148409108</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.135901898550047</v>
+        <v>9.930925320536538</v>
       </c>
       <c r="M8">
-        <v>12.24139377217581</v>
+        <v>15.55102157569571</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.29649615756383</v>
+        <v>27.04625740770032</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.30865119514138</v>
+        <v>17.93590464902631</v>
       </c>
       <c r="C9">
-        <v>14.54615290482229</v>
+        <v>10.92269915690965</v>
       </c>
       <c r="D9">
-        <v>8.105869432421162</v>
+        <v>6.25267762921486</v>
       </c>
       <c r="E9">
-        <v>7.253792206844246</v>
+        <v>12.00303805640752</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.072685636073757</v>
+        <v>3.659932133339646</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.345769745749262</v>
+        <v>9.915544222031242</v>
       </c>
       <c r="M9">
-        <v>13.71879285148908</v>
+        <v>15.79700878709638</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.12347479521916</v>
+        <v>26.93579065806934</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.5576330836214</v>
+        <v>18.7387790129547</v>
       </c>
       <c r="C10">
-        <v>15.47308560861104</v>
+        <v>11.33570553752606</v>
       </c>
       <c r="D10">
-        <v>8.879283019228538</v>
+        <v>6.465073442141511</v>
       </c>
       <c r="E10">
-        <v>7.072672263919744</v>
+        <v>11.94391554407413</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.060054163648113</v>
+        <v>3.655696909779362</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.51254253901946</v>
+        <v>9.910926958910036</v>
       </c>
       <c r="M10">
-        <v>14.93866628490823</v>
+        <v>15.98701211125055</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.84461028158395</v>
+        <v>26.8923635453943</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.53056031517702</v>
+        <v>19.09524154760062</v>
       </c>
       <c r="C11">
-        <v>15.87941007387847</v>
+        <v>11.51747989273044</v>
       </c>
       <c r="D11">
-        <v>9.215452819963547</v>
+        <v>6.561164970944019</v>
       </c>
       <c r="E11">
-        <v>6.991986132961146</v>
+        <v>11.91827412022958</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.054392884604474</v>
+        <v>3.653860490223816</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.591143047331452</v>
+        <v>9.910271853292098</v>
       </c>
       <c r="M11">
-        <v>15.46745079203338</v>
+        <v>16.0752110773486</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.19861681198934</v>
+        <v>26.88087652962404</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.89191923637154</v>
+        <v>19.22883897806523</v>
       </c>
       <c r="C12">
-        <v>16.03105067768795</v>
+        <v>11.58539489429938</v>
       </c>
       <c r="D12">
-        <v>9.340561662921496</v>
+        <v>6.597437691767782</v>
       </c>
       <c r="E12">
-        <v>6.961662820807857</v>
+        <v>11.90874372216811</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.052259383758236</v>
+        <v>3.653177978624833</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.621300910309936</v>
+        <v>9.910230983894824</v>
       </c>
       <c r="M12">
-        <v>15.66400266131046</v>
+        <v>16.10884159880627</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.33650009567129</v>
+        <v>26.87772051525839</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.8144060778266</v>
+        <v>19.20012996118416</v>
       </c>
       <c r="C13">
-        <v>15.9984913075323</v>
+        <v>11.57080967358911</v>
       </c>
       <c r="D13">
-        <v>9.313713688028386</v>
+        <v>6.589631430209978</v>
       </c>
       <c r="E13">
-        <v>6.968183465917027</v>
+        <v>11.91078829582619</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.052718445215939</v>
+        <v>3.653324397071767</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.614788350839315</v>
+        <v>9.910230581161388</v>
       </c>
       <c r="M13">
-        <v>15.62183447677951</v>
+        <v>16.10158872869519</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.30663264367465</v>
+        <v>26.87834705266787</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.56043032157985</v>
+        <v>19.10626117103942</v>
       </c>
       <c r="C14">
-        <v>15.89193030456912</v>
+        <v>11.52308594194068</v>
       </c>
       <c r="D14">
-        <v>9.22578915645323</v>
+        <v>6.564151672071499</v>
       </c>
       <c r="E14">
-        <v>6.989486877218496</v>
+        <v>11.91748645686804</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.054217165216532</v>
+        <v>3.653804081439002</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.593616258496373</v>
+        <v>9.910264342113676</v>
       </c>
       <c r="M14">
-        <v>15.48369469626801</v>
+        <v>16.07797337062468</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.20988326789978</v>
+        <v>26.88059293042113</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.40394684540212</v>
+        <v>19.04857962885062</v>
       </c>
       <c r="C15">
-        <v>15.82636842987135</v>
+        <v>11.49373293688011</v>
       </c>
       <c r="D15">
-        <v>9.171649328613709</v>
+        <v>6.54852847538023</v>
       </c>
       <c r="E15">
-        <v>7.002565438628857</v>
+        <v>11.92161261947366</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.055136456924572</v>
+        <v>3.654099579917002</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.58069902673205</v>
+        <v>9.910311985933815</v>
       </c>
       <c r="M15">
-        <v>15.39860214109483</v>
+        <v>16.06353775835694</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.15112294651644</v>
+        <v>26.88212420356756</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.49305300033531</v>
+        <v>18.71529583182663</v>
       </c>
       <c r="C16">
-        <v>15.44622063901098</v>
+        <v>11.3236997145402</v>
       </c>
       <c r="D16">
-        <v>8.857003494160127</v>
+        <v>6.458779616826638</v>
       </c>
       <c r="E16">
-        <v>7.07797839844634</v>
+        <v>11.94561642817943</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.060425690467199</v>
+        <v>3.655818733213917</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.507460835738418</v>
+        <v>9.910998802863013</v>
       </c>
       <c r="M16">
-        <v>14.90358891363124</v>
+        <v>15.9812817215844</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.8220056729058</v>
+        <v>26.89328106556858</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.92150492484139</v>
+        <v>18.50849746820002</v>
       </c>
       <c r="C17">
-        <v>15.20906444283817</v>
+        <v>11.21779588115938</v>
       </c>
       <c r="D17">
-        <v>8.660009369257619</v>
+        <v>6.403557841816314</v>
       </c>
       <c r="E17">
-        <v>7.124668696935971</v>
+        <v>11.96066249934637</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.063690896935646</v>
+        <v>3.656896431249576</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.463231811470653</v>
+        <v>9.911789897390607</v>
       </c>
       <c r="M17">
-        <v>14.59326768104672</v>
+        <v>15.93125667549816</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.62681991194919</v>
+        <v>26.90224688789159</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.58803654969631</v>
+        <v>18.38873391392925</v>
       </c>
       <c r="C18">
-        <v>15.07121465856583</v>
+        <v>11.15631045414561</v>
       </c>
       <c r="D18">
-        <v>8.545225720703673</v>
+        <v>6.371748220175418</v>
       </c>
       <c r="E18">
-        <v>7.151685241515692</v>
+        <v>11.96943465513128</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.065577066259076</v>
+        <v>3.65752478936305</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.43804976749348</v>
+        <v>9.912380995795724</v>
       </c>
       <c r="M18">
-        <v>14.41231378657481</v>
+        <v>15.90265113393608</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.51699201773798</v>
+        <v>26.90818179271072</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.47431344010277</v>
+        <v>18.34804747689627</v>
       </c>
       <c r="C19">
-        <v>15.02429394178826</v>
+        <v>11.13539556074089</v>
       </c>
       <c r="D19">
-        <v>8.50610635171253</v>
+        <v>6.360971090563069</v>
       </c>
       <c r="E19">
-        <v>7.1608607514965</v>
+        <v>11.97242505752926</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.066217138550813</v>
+        <v>3.657739001761275</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.429567767597333</v>
+        <v>9.912604521690984</v>
       </c>
       <c r="M19">
-        <v>14.35062040745546</v>
+        <v>15.89299524111276</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.48022194287364</v>
+        <v>26.91032470835973</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.98283561921924</v>
+        <v>18.53059718151312</v>
       </c>
       <c r="C20">
-        <v>15.23445974023842</v>
+        <v>11.22912907058452</v>
       </c>
       <c r="D20">
-        <v>8.681132255447128</v>
+        <v>6.409441501261254</v>
       </c>
       <c r="E20">
-        <v>7.119681821293596</v>
+        <v>11.95904860729958</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.063342484090359</v>
+        <v>3.656780829796586</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.46791343704335</v>
+        <v>9.911691604397802</v>
       </c>
       <c r="M20">
-        <v>14.62655655959821</v>
+        <v>15.9365647482119</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.64734477255443</v>
+        <v>26.90121190225234</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.63521978092371</v>
+        <v>19.13387130552157</v>
       </c>
       <c r="C21">
-        <v>15.92329034325727</v>
+        <v>11.53712881042751</v>
       </c>
       <c r="D21">
-        <v>9.251673692625817</v>
+        <v>6.571639118693387</v>
       </c>
       <c r="E21">
-        <v>6.983223406075738</v>
+        <v>11.91551418087915</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.053776691201452</v>
+        <v>3.653662836954817</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.599824324592062</v>
+        <v>9.910248807602224</v>
       </c>
       <c r="M21">
-        <v>15.52436916478156</v>
+        <v>16.08490367125913</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.23819622700962</v>
+        <v>26.87990082551703</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.67402663099694</v>
+        <v>19.52000987875022</v>
       </c>
       <c r="C22">
-        <v>16.36050896532115</v>
+        <v>11.73305124164846</v>
       </c>
       <c r="D22">
-        <v>9.61181374941552</v>
+        <v>6.676957327503859</v>
       </c>
       <c r="E22">
-        <v>6.89537770458537</v>
+        <v>11.88810752434653</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.047583934088677</v>
+        <v>3.651700210641755</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.688330946687837</v>
+        <v>9.910513260979878</v>
       </c>
       <c r="M22">
-        <v>16.08968729552101</v>
+        <v>16.18319042638226</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.64671454863345</v>
+        <v>26.87293325622405</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.12330876356243</v>
+        <v>19.31470356106806</v>
       </c>
       <c r="C23">
-        <v>16.12834691479938</v>
+        <v>11.62898807419074</v>
       </c>
       <c r="D23">
-        <v>9.420744981982624</v>
+        <v>6.620822289615341</v>
       </c>
       <c r="E23">
-        <v>6.942145239208826</v>
+        <v>11.90263957151278</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.050884396368898</v>
+        <v>3.65274084714053</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.640882780475916</v>
+        <v>9.91026186658833</v>
       </c>
       <c r="M23">
-        <v>15.78990387487377</v>
+        <v>16.13061791963037</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.42660229834092</v>
+        <v>26.87601369734636</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.95512321620313</v>
+        <v>18.52060860879269</v>
       </c>
       <c r="C24">
-        <v>15.22298321401917</v>
+        <v>11.2240072011139</v>
       </c>
       <c r="D24">
-        <v>8.67158736593599</v>
+        <v>6.406781688631995</v>
       </c>
       <c r="E24">
-        <v>7.121935845735057</v>
+        <v>11.95977786790338</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.06349997349212</v>
+        <v>3.656833065873006</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.46579610847479</v>
+        <v>9.911735618088592</v>
       </c>
       <c r="M24">
-        <v>14.6115145934387</v>
+        <v>15.93416448549117</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.63805805531266</v>
+        <v>26.90167738884582</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.43506834529179</v>
+        <v>17.63336852235166</v>
       </c>
       <c r="C25">
-        <v>14.19140925765837</v>
+        <v>10.76548736644003</v>
       </c>
       <c r="D25">
-        <v>7.806785604720671</v>
+        <v>6.174261975883985</v>
       </c>
       <c r="E25">
-        <v>7.322097066923143</v>
+        <v>12.02592775949749</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.077424249252519</v>
+        <v>3.661572257112323</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.28678250485092</v>
+        <v>9.918529769423294</v>
       </c>
       <c r="M25">
-        <v>13.28314133870755</v>
+        <v>15.72874936884526</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.88027092152873</v>
+        <v>26.95907646603519</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_246/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_246/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.95887025742561</v>
+        <v>21.41839629669605</v>
       </c>
       <c r="C2">
-        <v>10.41088652709471</v>
+        <v>13.38593854219131</v>
       </c>
       <c r="D2">
-        <v>6.003140476266533</v>
+        <v>7.119097698715588</v>
       </c>
       <c r="E2">
-        <v>12.0785583340616</v>
+        <v>7.475361003276591</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.665344553063869</v>
+        <v>2.088013021511522</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.928025477822979</v>
+        <v>6.163441006855732</v>
       </c>
       <c r="M2">
-        <v>15.58384651004511</v>
+        <v>12.443069826858</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.02666271157908</v>
+        <v>19.39814479434551</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.49152096218613</v>
+        <v>19.94869208104343</v>
       </c>
       <c r="C3">
-        <v>10.16093321222414</v>
+        <v>12.81262696879184</v>
       </c>
       <c r="D3">
-        <v>5.888025489195202</v>
+        <v>6.620267294212947</v>
       </c>
       <c r="E3">
-        <v>12.11669486953835</v>
+        <v>7.583147772003135</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.668079164905103</v>
+        <v>2.095427673855598</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.937270524233574</v>
+        <v>6.085142700716892</v>
       </c>
       <c r="M3">
-        <v>15.48997162322161</v>
+        <v>11.85201610405819</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.08812233584521</v>
+        <v>19.11640882476236</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.20064209182174</v>
+        <v>18.9947194262614</v>
       </c>
       <c r="C4">
-        <v>10.00307006593457</v>
+        <v>12.44766056346707</v>
       </c>
       <c r="D4">
-        <v>5.818046401158304</v>
+        <v>6.297503184086851</v>
       </c>
       <c r="E4">
-        <v>12.14133492826608</v>
+        <v>7.65133841099105</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.669846613796764</v>
+        <v>2.100106597962193</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.944334821351845</v>
+        <v>6.039679613380813</v>
       </c>
       <c r="M4">
-        <v>15.43458540616399</v>
+        <v>11.47937358084064</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.13352824239347</v>
+        <v>18.96473138474513</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.08130175576957</v>
+        <v>18.59289193501546</v>
       </c>
       <c r="C5">
-        <v>9.93769474046303</v>
+        <v>12.29578684034272</v>
       </c>
       <c r="D5">
-        <v>5.789748900640655</v>
+        <v>6.181331117476363</v>
       </c>
       <c r="E5">
-        <v>12.15168466417772</v>
+        <v>7.679642457793684</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.670589164826073</v>
+        <v>2.102046243243165</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.947562841438069</v>
+        <v>6.021810139060346</v>
       </c>
       <c r="M5">
-        <v>15.41259930134026</v>
+        <v>11.3252522868301</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.15395178635718</v>
+        <v>18.90813342374631</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.06144229498842</v>
+        <v>18.5253759182348</v>
       </c>
       <c r="C6">
-        <v>9.926777920844222</v>
+        <v>12.27038186141837</v>
       </c>
       <c r="D6">
-        <v>5.78506464256875</v>
+        <v>6.16209335321642</v>
       </c>
       <c r="E6">
-        <v>12.1534219021264</v>
+        <v>7.684373778672708</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.670713814029009</v>
+        <v>2.102370343143222</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.948119953471213</v>
+        <v>6.018882601166266</v>
       </c>
       <c r="M6">
-        <v>15.40898430940885</v>
+        <v>11.29952957252274</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.15745882535444</v>
+        <v>18.8990455540723</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.1990356369682</v>
+        <v>18.9893533257467</v>
       </c>
       <c r="C7">
-        <v>10.0021925406812</v>
+        <v>12.4456249234056</v>
       </c>
       <c r="D7">
-        <v>5.817663825250387</v>
+        <v>6.29568987105603</v>
       </c>
       <c r="E7">
-        <v>12.14147325725381</v>
+        <v>7.651718027050904</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.669856537701905</v>
+        <v>2.100132621779343</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.944376941078575</v>
+        <v>6.039435959224325</v>
       </c>
       <c r="M7">
-        <v>15.43428650572529</v>
+        <v>11.47730396201372</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.13379591784147</v>
+        <v>18.96394718794945</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.79864868245331</v>
+        <v>20.9222788036403</v>
       </c>
       <c r="C8">
-        <v>10.32564831203493</v>
+        <v>13.19100814823699</v>
       </c>
       <c r="D8">
-        <v>5.96332886732718</v>
+        <v>6.950494483983953</v>
       </c>
       <c r="E8">
-        <v>12.09145430410718</v>
+        <v>7.512115410701152</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.666269148409108</v>
+        <v>2.090544117615184</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.930925320536538</v>
+        <v>6.135901898550001</v>
       </c>
       <c r="M8">
-        <v>15.55102157569571</v>
+        <v>12.24139377217581</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.04625740770032</v>
+        <v>19.29649615756386</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.93590464902631</v>
+        <v>24.30865119514145</v>
       </c>
       <c r="C9">
-        <v>10.92269915690965</v>
+        <v>14.5461529048221</v>
       </c>
       <c r="D9">
-        <v>6.25267762921486</v>
+        <v>8.105869432421171</v>
       </c>
       <c r="E9">
-        <v>12.00303805640752</v>
+        <v>7.253792206844246</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.659932133339646</v>
+        <v>2.072685636073621</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.915544222031242</v>
+        <v>6.345769745749294</v>
       </c>
       <c r="M9">
-        <v>15.79700878709638</v>
+        <v>13.71879285148908</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.93579065806934</v>
+        <v>20.12347479521909</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.7387790129547</v>
+        <v>26.5576330836214</v>
       </c>
       <c r="C10">
-        <v>11.33570553752606</v>
+        <v>15.47308560861112</v>
       </c>
       <c r="D10">
-        <v>6.465073442141511</v>
+        <v>8.879283019228538</v>
       </c>
       <c r="E10">
-        <v>11.94391554407413</v>
+        <v>7.072672263919875</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.655696909779362</v>
+        <v>2.060054163648112</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.910926958910036</v>
+        <v>6.512542539019512</v>
       </c>
       <c r="M10">
-        <v>15.98701211125055</v>
+        <v>14.9386662849082</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.8923635453943</v>
+        <v>20.84461028158401</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.09524154760062</v>
+        <v>27.53056031517697</v>
       </c>
       <c r="C11">
-        <v>11.51747989273044</v>
+        <v>15.87941007387838</v>
       </c>
       <c r="D11">
-        <v>6.561164970944019</v>
+        <v>9.215452819963566</v>
       </c>
       <c r="E11">
-        <v>11.91827412022958</v>
+        <v>6.991986132961146</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.653860490223816</v>
+        <v>2.054392884604471</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.910271853292098</v>
+        <v>6.59114304733145</v>
       </c>
       <c r="M11">
-        <v>16.0752110773486</v>
+        <v>15.46745079203334</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.88087652962404</v>
+        <v>21.19861681198939</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.22883897806523</v>
+        <v>27.89191923637154</v>
       </c>
       <c r="C12">
-        <v>11.58539489429938</v>
+        <v>16.03105067768802</v>
       </c>
       <c r="D12">
-        <v>6.597437691767782</v>
+        <v>9.34056166292145</v>
       </c>
       <c r="E12">
-        <v>11.90874372216811</v>
+        <v>6.961662820807855</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.653177978624833</v>
+        <v>2.052259383758103</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.910230983894824</v>
+        <v>6.621300910309991</v>
       </c>
       <c r="M12">
-        <v>16.10884159880627</v>
+        <v>15.66400266131044</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.87772051525839</v>
+        <v>21.33650009567135</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.20012996118416</v>
+        <v>27.81440607782664</v>
       </c>
       <c r="C13">
-        <v>11.57080967358911</v>
+        <v>15.99849130753227</v>
       </c>
       <c r="D13">
-        <v>6.589631430209978</v>
+        <v>9.313713688028473</v>
       </c>
       <c r="E13">
-        <v>11.91078829582619</v>
+        <v>6.968183465916961</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.653324397071767</v>
+        <v>2.052718445215939</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.910230581161388</v>
+        <v>6.614788350839309</v>
       </c>
       <c r="M13">
-        <v>16.10158872869519</v>
+        <v>15.62183447677957</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.87834705266787</v>
+        <v>21.30663264367454</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.10626117103942</v>
+        <v>27.5604303215799</v>
       </c>
       <c r="C14">
-        <v>11.52308594194068</v>
+        <v>15.89193030456893</v>
       </c>
       <c r="D14">
-        <v>6.564151672071499</v>
+        <v>9.225789156453287</v>
       </c>
       <c r="E14">
-        <v>11.91748645686804</v>
+        <v>6.989486877218501</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.653804081439002</v>
+        <v>2.054217165216399</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.910264342113676</v>
+        <v>6.593616258496346</v>
       </c>
       <c r="M14">
-        <v>16.07797337062468</v>
+        <v>15.48369469626804</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.88059293042113</v>
+        <v>21.20988326789977</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.04857962885062</v>
+        <v>27.40394684540222</v>
       </c>
       <c r="C15">
-        <v>11.49373293688011</v>
+        <v>15.82636842987133</v>
       </c>
       <c r="D15">
-        <v>6.54852847538023</v>
+        <v>9.17164932861367</v>
       </c>
       <c r="E15">
-        <v>11.92161261947366</v>
+        <v>7.00256543862886</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.654099579917002</v>
+        <v>2.055136456924174</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.910311985933815</v>
+        <v>6.580699026732055</v>
       </c>
       <c r="M15">
-        <v>16.06353775835694</v>
+        <v>15.39860214109489</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.88212420356756</v>
+        <v>21.1511229465164</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.71529583182663</v>
+        <v>26.49305300033528</v>
       </c>
       <c r="C16">
-        <v>11.3236997145402</v>
+        <v>15.44622063901094</v>
       </c>
       <c r="D16">
-        <v>6.458779616826638</v>
+        <v>8.85700349416012</v>
       </c>
       <c r="E16">
-        <v>11.94561642817943</v>
+        <v>7.077978398446406</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.655818733213917</v>
+        <v>2.060425690467331</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.910998802863013</v>
+        <v>6.507460835738413</v>
       </c>
       <c r="M16">
-        <v>15.9812817215844</v>
+        <v>14.90358891363123</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.89328106556858</v>
+        <v>20.82200567290592</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.50849746820002</v>
+        <v>25.92150492484135</v>
       </c>
       <c r="C17">
-        <v>11.21779588115938</v>
+        <v>15.20906444283806</v>
       </c>
       <c r="D17">
-        <v>6.403557841816314</v>
+        <v>8.660009369257587</v>
       </c>
       <c r="E17">
-        <v>11.96066249934637</v>
+        <v>7.124668696936036</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.656896431249576</v>
+        <v>2.063690896935648</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.911789897390607</v>
+        <v>6.463231811470702</v>
       </c>
       <c r="M17">
-        <v>15.93125667549816</v>
+        <v>14.59326768104668</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.90224688789159</v>
+        <v>20.62681991194928</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.38873391392925</v>
+        <v>25.58803654969628</v>
       </c>
       <c r="C18">
-        <v>11.15631045414561</v>
+        <v>15.07121465856582</v>
       </c>
       <c r="D18">
-        <v>6.371748220175418</v>
+        <v>8.54522572070368</v>
       </c>
       <c r="E18">
-        <v>11.96943465513128</v>
+        <v>7.151685241515693</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.65752478936305</v>
+        <v>2.065577066259343</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.912380995795724</v>
+        <v>6.438049767493503</v>
       </c>
       <c r="M18">
-        <v>15.90265113393608</v>
+        <v>14.4123137865748</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.90818179271072</v>
+        <v>20.51699201773793</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.34804747689627</v>
+        <v>25.4743134401028</v>
       </c>
       <c r="C19">
-        <v>11.13539556074089</v>
+        <v>15.02429394178817</v>
       </c>
       <c r="D19">
-        <v>6.360971090563069</v>
+        <v>8.50610635171263</v>
       </c>
       <c r="E19">
-        <v>11.97242505752926</v>
+        <v>7.1608607514965</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.657739001761275</v>
+        <v>2.066217138551081</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.912604521690984</v>
+        <v>6.429567767597325</v>
       </c>
       <c r="M19">
-        <v>15.89299524111276</v>
+        <v>14.35062040745548</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.91032470835973</v>
+        <v>20.48022194287356</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.53059718151312</v>
+        <v>25.98283561921924</v>
       </c>
       <c r="C20">
-        <v>11.22912907058452</v>
+        <v>15.23445974023834</v>
       </c>
       <c r="D20">
-        <v>6.409441501261254</v>
+        <v>8.681132255447142</v>
       </c>
       <c r="E20">
-        <v>11.95904860729958</v>
+        <v>7.119681821293598</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.656780829796586</v>
+        <v>2.063342484090227</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.911691604397802</v>
+        <v>6.46791343704336</v>
       </c>
       <c r="M20">
-        <v>15.9365647482119</v>
+        <v>14.62655655959821</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.90121190225234</v>
+        <v>20.64734477255441</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.13387130552157</v>
+        <v>27.63521978092365</v>
       </c>
       <c r="C21">
-        <v>11.53712881042751</v>
+        <v>15.92329034325714</v>
       </c>
       <c r="D21">
-        <v>6.571639118693387</v>
+        <v>9.251673692625731</v>
       </c>
       <c r="E21">
-        <v>11.91551418087915</v>
+        <v>6.983223406075736</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.653662836954817</v>
+        <v>2.053776691201454</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.910248807602224</v>
+        <v>6.599824324592101</v>
       </c>
       <c r="M21">
-        <v>16.08490367125913</v>
+        <v>15.52436916478151</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.87990082551703</v>
+        <v>21.23819622700968</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.52000987875022</v>
+        <v>28.67402663099697</v>
       </c>
       <c r="C22">
-        <v>11.73305124164846</v>
+        <v>16.36050896532117</v>
       </c>
       <c r="D22">
-        <v>6.676957327503859</v>
+        <v>9.611813749415544</v>
       </c>
       <c r="E22">
-        <v>11.88810752434653</v>
+        <v>6.895377704585501</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.651700210641755</v>
+        <v>2.047583934088811</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.910513260979878</v>
+        <v>6.688330946687852</v>
       </c>
       <c r="M22">
-        <v>16.18319042638226</v>
+        <v>16.08968729552099</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.87293325622405</v>
+        <v>21.6467145486335</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.31470356106806</v>
+        <v>28.12330876356247</v>
       </c>
       <c r="C23">
-        <v>11.62898807419074</v>
+        <v>16.12834691479929</v>
       </c>
       <c r="D23">
-        <v>6.620822289615341</v>
+        <v>9.420744981982644</v>
       </c>
       <c r="E23">
-        <v>11.90263957151278</v>
+        <v>6.94214523920876</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.65274084714053</v>
+        <v>2.050884396369034</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.91026186658833</v>
+        <v>6.640882780475916</v>
       </c>
       <c r="M23">
-        <v>16.13061791963037</v>
+        <v>15.7899038748738</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.87601369734636</v>
+        <v>21.42660229834088</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.52060860879269</v>
+        <v>25.95512321620317</v>
       </c>
       <c r="C24">
-        <v>11.2240072011139</v>
+        <v>15.22298321401902</v>
       </c>
       <c r="D24">
-        <v>6.406781688631995</v>
+        <v>8.67158736593602</v>
       </c>
       <c r="E24">
-        <v>11.95977786790338</v>
+        <v>7.121935845734992</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.656833065873006</v>
+        <v>2.06349997349212</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.911735618088592</v>
+        <v>6.465796108474789</v>
       </c>
       <c r="M24">
-        <v>15.93416448549117</v>
+        <v>14.61151459343871</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.90167738884582</v>
+        <v>20.63805805531263</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.63336852235166</v>
+        <v>23.4350683452918</v>
       </c>
       <c r="C25">
-        <v>10.76548736644003</v>
+        <v>14.19140925765836</v>
       </c>
       <c r="D25">
-        <v>6.174261975883985</v>
+        <v>7.806785604720726</v>
       </c>
       <c r="E25">
-        <v>12.02592775949749</v>
+        <v>7.322097066923081</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.661572257112323</v>
+        <v>2.07742424925252</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.918529769423294</v>
+        <v>6.286782504850927</v>
       </c>
       <c r="M25">
-        <v>15.72874936884526</v>
+        <v>13.28314133870754</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.95907646603519</v>
+        <v>19.88027092152867</v>
       </c>
     </row>
   </sheetData>
